--- a/Input/Allianz_Expat_Protect/benefits2.xlsx
+++ b/Input/Allianz_Expat_Protect/benefits2.xlsx
@@ -271,7 +271,7 @@
     <t xml:space="preserve">Zone 3</t>
   </si>
   <si>
-    <t xml:space="preserve">Out-patient benefits/Out-patient Consultations/Out-patient Specialists/Out-patient Medicines/Vaccination/Scans &amp; Diagnostic Tests/Physiotherapy/Optical Benefits/Wellness &amp; Health Screening/Alternative Medicines/Mental Health Benefit</t>
+    <t xml:space="preserve">Out-patient Consultations/Out-patient Specialists/Out-patient Medicines/Vaccination/Scans &amp; Diagnostic Tests/Physiotherapy/Optical Benefits/Wellness &amp; Health Screening/Alternative Medicines/Mental Health Benefit</t>
   </si>
   <si>
     <t xml:space="preserve">Dental - Dental Waiting Period</t>
@@ -425,10 +425,10 @@
   <dimension ref="A1:BC13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AW1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BB9" activeCellId="0" sqref="BB9"/>
+      <selection pane="topLeft" activeCell="BA9" activeCellId="0" sqref="BA9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.51171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="54" min="54" style="1" width="8.5"/>
   </cols>
@@ -952,17 +952,17 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AX11" s="0" t="s">
+      <c r="AX11" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AX12" s="0" t="s">
+      <c r="AX12" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AX13" s="0" t="s">
+      <c r="AX13" s="2" t="s">
         <v>17</v>
       </c>
     </row>

--- a/Input/Allianz_Expat_Protect/benefits2.xlsx
+++ b/Input/Allianz_Expat_Protect/benefits2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="97">
   <si>
     <t xml:space="preserve">PlanName</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t xml:space="preserve">Deductible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">discounts</t>
   </si>
   <si>
     <t xml:space="preserve">Pack Premium</t>
@@ -281,6 +284,9 @@
   </si>
   <si>
     <t xml:space="preserve">IP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">discount</t>
   </si>
   <si>
     <t xml:space="preserve">Pack Confort</t>
@@ -422,13 +428,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BC13"/>
+  <dimension ref="A1:BD13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AW1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BA9" activeCellId="0" sqref="BA9"/>
+      <selection pane="topLeft" activeCell="BE7" activeCellId="0" sqref="BE7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.51171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="54" min="54" style="1" width="8.5"/>
   </cols>
@@ -599,318 +605,324 @@
       <c r="BC1" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="BD1" s="0" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="AE2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK2" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL2" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AX2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BB2" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="BD2" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="AE3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK3" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL3" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN3" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AO3" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AP3" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AQ3" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AR3" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AU3" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AX3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="BB3" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="BC3" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -918,7 +930,7 @@
         <v>15</v>
       </c>
       <c r="BB4" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
